--- a/output/instance_SMALL_scenario_2/dual_variables_iteration12.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration12.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1784670186831175</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4237220684375144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -613,7 +613,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.266142617222752</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.990631749385341</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1.523311804538108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -717,7 +717,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4247410501682301</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3188737960597677</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3235675660265894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -829,7 +829,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.3213541536779414</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.221969404567671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005319152165933372</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5200388596322607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5516375458942557</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1393305.599637372</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1751862.007285662</v>
+        <v>-947466.1289446583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration12.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration12.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0.2332815924394346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.02023384265656157</v>
       </c>
     </row>
     <row r="17">
@@ -613,7 +613,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1.238708017048907</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.3597796587482546</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.04480197289402854</v>
       </c>
     </row>
     <row r="25">
@@ -645,10 +645,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.09863731296082937</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.08873024152634998</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.3155588622439751</v>
       </c>
     </row>
     <row r="42">
@@ -805,7 +805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.3479384847926929</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.1499182428446524</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.03062801534401993</v>
       </c>
     </row>
     <row r="50">
@@ -840,12 +840,12 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.01632196159881616</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477318</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.7037476435527693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.6456452926697214</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>4988366.865102232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-947466.1289446583</v>
+        <v>5760837.497402911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
